--- a/biology/Histoire de la zoologie et de la botanique/Carl_Euler/Carl_Euler.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Euler/Carl_Euler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Hieronymus Euler est un fermier et un ornithologue suisse, né en 1834 à Bâle et mort le 27 novembre 1901.
 En 1853, il se rend à Rio de Janeiro et achète une ferme près de Cantagallo. Il devient vice-consul suisse et passe son temps libre à récolter des oiseaux et étudier leurs mœurs. Il publie ses observations dans le Journal für Ornithologie entre 1867 à 1893. Il envoie des spécimens au musée d'histoire naturelle de Berlin où Jean Louis Cabanis (1816-1906) lui dédie le moucherolle d'Euler, Lathrotriccus euleri (Cabanis, 1868).
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bo Beolens et Michael Watkins (2003). Whose Bird ? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres).
  Portail de l’histoire de la zoologie et de la botanique   Portail de l'ornithologie   Portail de la Suisse du Nord-Ouest                   </t>
